--- a/setback/홍상현,Kwon표1.xlsx
+++ b/setback/홍상현,Kwon표1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\[논문] 태양광 공급곡선\SupplyCurvePV\setback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C8809D-B5E6-4B6D-915F-685FE25B9F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36781E78-5BB4-4424-8136-77FB5A545E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{559CAA7E-CB38-4067-B955-AC713B3F2BA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{559CAA7E-CB38-4067-B955-AC713B3F2BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>현이격거리규제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,94 @@
   </si>
   <si>
     <t>Kwon et al.(2020) 태양광 발전사업 입지규제의 현황과 개선방향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규제없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장연재 외 (2023)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEEI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여 입지면적 비중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48C2F01-379C-49FB-950F-20D1E3509112}">
-  <dimension ref="B5:K16"/>
+  <dimension ref="A5:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G16"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,12 +597,12 @@
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -537,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -558,7 +646,7 @@
         <v>0.54526977796525677</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:L9" si="0">E7/$C7</f>
+        <f t="shared" ref="J7:K9" si="0">E7/$C7</f>
         <v>0.23990489703570195</v>
       </c>
       <c r="K7" s="1">
@@ -566,7 +654,7 @@
         <v>0.22682823944472141</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -594,8 +682,14 @@
         <f t="shared" si="0"/>
         <v>0.22674418604651161</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -623,13 +717,47 @@
         <f t="shared" si="0"/>
         <v>0.22576785001994415</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>740</v>
+      </c>
+      <c r="Q10">
+        <f>P12-P11-P10</f>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>1139</v>
+      </c>
+      <c r="Q11">
+        <f>P12-P11</f>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f>SUM(P8:P11)</f>
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -637,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -659,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -678,7 +806,7 @@
         <v>0.52841544149256303</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -695,6 +823,153 @@
       <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>0.32456193259899613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/setback/홍상현,Kwon표1.xlsx
+++ b/setback/홍상현,Kwon표1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\[논문] 태양광 공급곡선\SupplyCurvePV\setback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36781E78-5BB4-4424-8136-77FB5A545E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F113FA9-A1A3-4556-808F-80AF55E77FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{559CAA7E-CB38-4067-B955-AC713B3F2BA5}"/>
+    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{559CAA7E-CB38-4067-B955-AC713B3F2BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,11 +246,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +594,7 @@
   <dimension ref="A5:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,11 +719,11 @@
         <v>0.54407658556043081</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f>E9/$C9</f>
         <v>0.24930195452732348</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
+      <c r="K9" s="2">
+        <f>F9/$C9</f>
         <v>0.22576785001994415</v>
       </c>
       <c r="O9" t="s">
